--- a/Project2/Data/Ireland Long and short term air temperature/LongTerm/Valentia Observatory/Valentia Observatory telegraphic reporting station_metadata.xlsx
+++ b/Project2/Data/Ireland Long and short term air temperature/LongTerm/Valentia Observatory/Valentia Observatory telegraphic reporting station_metadata.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/308cd6d4e5c7527d/ATU_Galway/Programming_DataAnalysis/ProgrammingForDataAnalysis_Project2/Project2/Data/Ireland Long and short term air temperature/LongTerm/Valentia Observatory/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_9B30EEBF373C33E7FE217FA4F12CCA86A3398CA3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F92B9C44-8B36-43DE-AE5D-C7561EEB0732}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19155" windowHeight="8505"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -3196,8 +3202,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3450,100 +3456,96 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3555,64 +3557,68 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{9D59B234-269F-48B1-89C8-E128AD5A951E}"/>
+  </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -3633,7 +3639,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagem 1" descr="G:\Ireland\METEOROLOGICAL STATIONS\MATERIAL\UK Met Office_2018\Pictures\397.jpg"/>
+        <xdr:cNvPr id="2" name="Imagem 1" descr="G:\Ireland\METEOROLOGICAL STATIONS\MATERIAL\UK Met Office_2018\Pictures\397.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3677,14 +3689,20 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 17" descr="F:\Ireland\METEOROLOGICAL STATIONS\MATERIAL\UK Met Office_2018\Pictures\403.jpg"/>
+        <xdr:cNvPr id="3" name="Picture 17" descr="F:\Ireland\METEOROLOGICAL STATIONS\MATERIAL\UK Met Office_2018\Pictures\403.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:ve="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns="" xmlns:wpc="http://schemas.microsoft.com/office/word/2010/wordprocessingCanvas" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wpi="http://schemas.microsoft.com/office/word/2010/wordprocessingInk" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3705,7 +3723,7 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns:ve="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns="" xmlns:wpc="http://schemas.microsoft.com/office/word/2010/wordprocessingCanvas" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wpi="http://schemas.microsoft.com/office/word/2010/wordprocessingInk" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas"/>
+            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
           </a:ext>
         </a:extLst>
       </xdr:spPr>
@@ -3727,14 +3745,20 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 16" descr="F:\Ireland\METEOROLOGICAL STATIONS\MATERIAL\UK Met Office_2018\Pictures\399.jpg"/>
+        <xdr:cNvPr id="4" name="Picture 16" descr="F:\Ireland\METEOROLOGICAL STATIONS\MATERIAL\UK Met Office_2018\Pictures\399.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:ve="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns="" xmlns:wpc="http://schemas.microsoft.com/office/word/2010/wordprocessingCanvas" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wpi="http://schemas.microsoft.com/office/word/2010/wordprocessingInk" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3755,7 +3779,7 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns:ve="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns="" xmlns:wpc="http://schemas.microsoft.com/office/word/2010/wordprocessingCanvas" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wpi="http://schemas.microsoft.com/office/word/2010/wordprocessingInk" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas"/>
+            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
           </a:ext>
         </a:extLst>
       </xdr:spPr>
@@ -3777,14 +3801,20 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 18" descr="F:\Ireland\METEOROLOGICAL STATIONS\MATERIAL\UK Met Office_2018\Pictures\406.jpg"/>
+        <xdr:cNvPr id="5" name="Picture 18" descr="F:\Ireland\METEOROLOGICAL STATIONS\MATERIAL\UK Met Office_2018\Pictures\406.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:ve="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns="" xmlns:wpc="http://schemas.microsoft.com/office/word/2010/wordprocessingCanvas" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wpi="http://schemas.microsoft.com/office/word/2010/wordprocessingInk" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3805,7 +3835,7 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns:ve="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns="" xmlns:wpc="http://schemas.microsoft.com/office/word/2010/wordprocessingCanvas" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wpi="http://schemas.microsoft.com/office/word/2010/wordprocessingInk" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas"/>
+            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
           </a:ext>
         </a:extLst>
       </xdr:spPr>
@@ -3816,9 +3846,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3856,7 +3886,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -3890,6 +3920,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -3924,9 +3955,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4099,1563 +4131,1573 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C194"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A158" workbookViewId="0">
       <selection activeCell="B9" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="127.28515625" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="16.54296875" customWidth="1"/>
+    <col min="2" max="2" width="23.81640625" customWidth="1"/>
+    <col min="3" max="3" width="127.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="38" t="s">
         <v>150</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+    </row>
+    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="24" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1">
-      <c r="A3" s="43" t="s">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="41" t="s">
         <v>232</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="47" t="s">
         <v>196</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="25" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="30">
-      <c r="A4" s="44"/>
-      <c r="B4" s="41"/>
-      <c r="C4" s="31" t="s">
+    <row r="4" spans="1:3" ht="28" x14ac:dyDescent="0.35">
+      <c r="A4" s="42"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="29" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30">
-      <c r="A5" s="44"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="31" t="s">
+    <row r="5" spans="1:3" ht="28" x14ac:dyDescent="0.35">
+      <c r="A5" s="42"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="29" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="44"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="30" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="42"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="28" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="30">
-      <c r="A7" s="44"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="29" t="s">
+    <row r="7" spans="1:3" ht="28" x14ac:dyDescent="0.35">
+      <c r="A7" s="42"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="27" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="30.75" thickBot="1">
-      <c r="A8" s="44"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="28" t="s">
+    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="42"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="26" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="44"/>
-      <c r="B9" s="40" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="42"/>
+      <c r="B9" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="31" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="44"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="34" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="42"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="32" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A11" s="45"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="28" t="s">
+    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="43"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="26" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="43.5" thickBot="1">
-      <c r="A12" s="11" t="s">
+    <row r="12" spans="1:3" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="105.75" thickBot="1">
-      <c r="A13" s="43" t="s">
+    <row r="13" spans="1:3" ht="98.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="30.75" thickBot="1">
-      <c r="A14" s="44"/>
-      <c r="B14" s="5" t="s">
+    <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="42"/>
+      <c r="B14" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="6" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A15" s="44"/>
-      <c r="B15" s="8" t="s">
+    <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="42"/>
+      <c r="B15" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="30.75" thickBot="1">
-      <c r="A16" s="44"/>
-      <c r="B16" s="5" t="s">
+    <row r="16" spans="1:3" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="42"/>
+      <c r="B16" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="6" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="36.75" customHeight="1" thickBot="1">
-      <c r="A17" s="44"/>
-      <c r="B17" s="5" t="s">
+    <row r="17" spans="1:3" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="42"/>
+      <c r="B17" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="6" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="45.75" thickBot="1">
-      <c r="A18" s="44"/>
-      <c r="B18" s="10" t="s">
+    <row r="18" spans="1:3" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="42"/>
+      <c r="B18" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="6" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="30.75" thickBot="1">
-      <c r="A19" s="45"/>
-      <c r="B19" s="12" t="s">
+    <row r="19" spans="1:3" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="43"/>
+      <c r="B19" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="30.75" thickBot="1">
-      <c r="A20" s="14" t="s">
+    <row r="20" spans="1:3" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A21" s="14" t="s">
+    <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="30.75" thickBot="1">
-      <c r="A22" s="14" t="s">
+    <row r="22" spans="1:3" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A23" s="14">
+    <row r="23" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="12">
         <v>1850</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A24" s="14">
+    <row r="24" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="12">
         <v>1851</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="43" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="46" t="s">
+      <c r="B25" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="44"/>
-      <c r="B26" s="47"/>
-      <c r="C26" s="6"/>
-    </row>
-    <row r="27" spans="1:3" ht="33">
-      <c r="A27" s="44"/>
-      <c r="B27" s="47"/>
-      <c r="C27" s="6" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="42"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="5"/>
+    </row>
+    <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.35">
+      <c r="A27" s="42"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="44"/>
-      <c r="B28" s="47"/>
-      <c r="C28" s="6"/>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="44"/>
-      <c r="B29" s="47"/>
-      <c r="C29" s="6" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="42"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="5"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="42"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="63.75" thickBot="1">
-      <c r="A30" s="45"/>
-      <c r="B30" s="48"/>
-      <c r="C30" s="13" t="s">
+    <row r="30" spans="1:3" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="43"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A31" s="14" t="s">
+    <row r="31" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="43" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="41" t="s">
         <v>226</v>
       </c>
-      <c r="B32" s="46" t="s">
+      <c r="B32" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A33" s="45"/>
-      <c r="B33" s="48"/>
-      <c r="C33" s="13" t="s">
+    <row r="33" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="43"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="11" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="29.25" thickBot="1">
-      <c r="A34" s="14" t="s">
+    <row r="34" spans="1:3" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C34" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="43" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="B35" s="46" t="s">
+      <c r="B35" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A36" s="45"/>
-      <c r="B36" s="48"/>
-      <c r="C36" s="13" t="s">
+    <row r="36" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="43"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="29.25" thickBot="1">
-      <c r="A37" s="14" t="s">
+    <row r="37" spans="1:3" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="29.25" thickBot="1">
-      <c r="A38" s="14" t="s">
+    <row r="38" spans="1:3" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C38" s="11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A39" s="14" t="s">
+    <row r="39" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C39" s="11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="221.25" customHeight="1" thickBot="1">
-      <c r="A40" s="43" t="s">
+    <row r="40" spans="1:3" ht="221.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="41" t="s">
         <v>230</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C40" s="24" t="s">
+      <c r="C40" s="22" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="75.75" thickBot="1">
-      <c r="A41" s="44"/>
-      <c r="B41" s="10" t="s">
+    <row r="41" spans="1:3" ht="56.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="42"/>
+      <c r="B41" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="6" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="60.75" thickBot="1">
-      <c r="A42" s="44"/>
-      <c r="B42" s="25" t="s">
+    <row r="42" spans="1:3" ht="56.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="42"/>
+      <c r="B42" s="23" t="s">
         <v>196</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="5" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="45.75" thickBot="1">
-      <c r="A43" s="11">
+    <row r="43" spans="1:3" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="9">
         <v>1872</v>
       </c>
-      <c r="B43" s="50" t="s">
+      <c r="B43" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="C43" s="51" t="s">
+      <c r="C43" s="37" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A44" s="14" t="s">
+    <row r="44" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B44" s="12" t="s">
+      <c r="B44" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C44" s="15" t="s">
+      <c r="C44" s="13" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="43" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="B45" s="46" t="s">
+      <c r="B45" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="C45" s="52" t="s">
+      <c r="C45" s="44" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A46" s="45"/>
-      <c r="B46" s="48"/>
-      <c r="C46" s="53"/>
-    </row>
-    <row r="47" spans="1:3" ht="30.75" thickBot="1">
-      <c r="A47" s="14" t="s">
+    <row r="46" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="43"/>
+      <c r="B46" s="40"/>
+      <c r="C46" s="45"/>
+    </row>
+    <row r="47" spans="1:3" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B47" s="12" t="s">
+      <c r="B47" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C47" s="15" t="s">
+      <c r="C47" s="13" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="15" customHeight="1">
-      <c r="A48" s="43" t="s">
+    <row r="48" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="B48" s="46" t="s">
+      <c r="B48" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="C48" s="52" t="s">
+      <c r="C48" s="44" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A49" s="45"/>
-      <c r="B49" s="48"/>
-      <c r="C49" s="53"/>
-    </row>
-    <row r="50" spans="1:3" ht="15" customHeight="1">
-      <c r="A50" s="43">
+    <row r="49" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="43"/>
+      <c r="B49" s="40"/>
+      <c r="C49" s="45"/>
+    </row>
+    <row r="50" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="41">
         <v>1874</v>
       </c>
-      <c r="B50" s="46" t="s">
+      <c r="B50" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="C50" s="52" t="s">
+      <c r="C50" s="44" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A51" s="45"/>
-      <c r="B51" s="48"/>
-      <c r="C51" s="53"/>
-    </row>
-    <row r="52" spans="1:3" ht="30.75" thickBot="1">
-      <c r="A52" s="14" t="s">
+    <row r="51" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="43"/>
+      <c r="B51" s="40"/>
+      <c r="C51" s="45"/>
+    </row>
+    <row r="52" spans="1:3" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B52" s="12" t="s">
+      <c r="B52" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C52" s="15" t="s">
+      <c r="C52" s="13" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="30.75" thickBot="1">
-      <c r="A53" s="14" t="s">
+    <row r="53" spans="1:3" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B53" s="12" t="s">
+      <c r="B53" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C53" s="15" t="s">
+      <c r="C53" s="13" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="30.75" thickBot="1">
-      <c r="A54" s="14" t="s">
+    <row r="54" spans="1:3" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B54" s="12" t="s">
+      <c r="B54" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C54" s="15" t="s">
+      <c r="C54" s="13" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="30.75" thickBot="1">
-      <c r="A55" s="14" t="s">
+    <row r="55" spans="1:3" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B55" s="12" t="s">
+      <c r="B55" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C55" s="13" t="s">
+      <c r="C55" s="11" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="30.75" thickBot="1">
-      <c r="A56" s="14" t="s">
+    <row r="56" spans="1:3" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B56" s="12" t="s">
+      <c r="B56" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C56" s="15" t="s">
+      <c r="C56" s="13" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A57" s="14" t="s">
+    <row r="57" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B57" s="12" t="s">
+      <c r="B57" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C57" s="15" t="s">
+      <c r="C57" s="13" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="30.75" thickBot="1">
-      <c r="A58" s="14" t="s">
+    <row r="58" spans="1:3" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B58" s="12" t="s">
+      <c r="B58" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C58" s="15" t="s">
+      <c r="C58" s="13" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="18.75" thickBot="1">
-      <c r="A59" s="14" t="s">
+    <row r="59" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B59" s="12" t="s">
+      <c r="B59" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C59" s="15" t="s">
+      <c r="C59" s="13" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="30.75" thickBot="1">
-      <c r="A60" s="14" t="s">
+    <row r="60" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="B60" s="12" t="s">
+      <c r="B60" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C60" s="13" t="s">
+      <c r="C60" s="11" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="30.75" thickBot="1">
-      <c r="A61" s="14" t="s">
+    <row r="61" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B61" s="12" t="s">
+      <c r="B61" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C61" s="15" t="s">
+      <c r="C61" s="13" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="48.75" thickBot="1">
-      <c r="A62" s="14" t="s">
+    <row r="62" spans="1:3" ht="44.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B62" s="12" t="s">
+      <c r="B62" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C62" s="13" t="s">
+      <c r="C62" s="11" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="33.75" thickBot="1">
-      <c r="A63" s="14" t="s">
+    <row r="63" spans="1:3" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="B63" s="12" t="s">
+      <c r="B63" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C63" s="13" t="s">
+      <c r="C63" s="11" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="45.75" thickBot="1">
-      <c r="A64" s="14">
+    <row r="64" spans="1:3" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A64" s="12">
         <v>1883</v>
       </c>
-      <c r="B64" s="12" t="s">
+      <c r="B64" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C64" s="13" t="s">
+      <c r="C64" s="11" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A65" s="14" t="s">
+    <row r="65" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A65" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="B65" s="12" t="s">
+      <c r="B65" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C65" s="15" t="s">
+      <c r="C65" s="13" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="30.75" thickBot="1">
-      <c r="A66" s="14" t="s">
+    <row r="66" spans="1:3" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A66" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="B66" s="12" t="s">
+      <c r="B66" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C66" s="15" t="s">
+      <c r="C66" s="13" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="33.75" thickBot="1">
-      <c r="A67" s="14" t="s">
+    <row r="67" spans="1:3" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A67" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="B67" s="12" t="s">
+      <c r="B67" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C67" s="15" t="s">
+      <c r="C67" s="13" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="36.75" thickBot="1">
-      <c r="A68" s="14" t="s">
+    <row r="68" spans="1:3" ht="32.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A68" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="B68" s="12" t="s">
+      <c r="B68" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C68" s="15" t="s">
+      <c r="C68" s="13" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A69" s="14" t="s">
+    <row r="69" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A69" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="B69" s="12" t="s">
+      <c r="B69" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C69" s="15" t="s">
+      <c r="C69" s="13" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="33.75" thickBot="1">
-      <c r="A70" s="14" t="s">
+    <row r="70" spans="1:3" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A70" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="B70" s="12" t="s">
+      <c r="B70" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C70" s="15" t="s">
+      <c r="C70" s="13" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="30.75" thickBot="1">
-      <c r="A71" s="14" t="s">
+    <row r="71" spans="1:3" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A71" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="B71" s="12" t="s">
+      <c r="B71" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C71" s="15" t="s">
+      <c r="C71" s="13" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="33.75" thickBot="1">
-      <c r="A72" s="14" t="s">
+    <row r="72" spans="1:3" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A72" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="B72" s="12" t="s">
+      <c r="B72" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C72" s="15" t="s">
+      <c r="C72" s="13" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="30.75" thickBot="1">
-      <c r="A73" s="14" t="s">
+    <row r="73" spans="1:3" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A73" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="B73" s="12" t="s">
+      <c r="B73" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C73" s="15" t="s">
+      <c r="C73" s="13" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="30.75" thickBot="1">
-      <c r="A74" s="14" t="s">
+    <row r="74" spans="1:3" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A74" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="B74" s="12" t="s">
+      <c r="B74" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C74" s="15" t="s">
+      <c r="C74" s="13" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A75" s="14">
+    <row r="75" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A75" s="12">
         <v>1888</v>
       </c>
-      <c r="B75" s="12" t="s">
+      <c r="B75" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="C75" s="15" t="s">
+      <c r="C75" s="13" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="33.75" thickBot="1">
-      <c r="A76" s="14" t="s">
+    <row r="76" spans="1:3" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A76" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="B76" s="12" t="s">
+      <c r="B76" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C76" s="13" t="s">
+      <c r="C76" s="11" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="38.25" customHeight="1" thickBot="1">
-      <c r="A77" s="14" t="s">
+    <row r="77" spans="1:3" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A77" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="B77" s="12" t="s">
+      <c r="B77" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C77" s="15" t="s">
+      <c r="C77" s="13" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="29.25" thickBot="1">
-      <c r="A78" s="14">
+    <row r="78" spans="1:3" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A78" s="12">
         <v>1890</v>
       </c>
-      <c r="B78" s="12" t="s">
+      <c r="B78" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C78" s="15" t="s">
+      <c r="C78" s="13" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A79" s="14" t="s">
+    <row r="79" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A79" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="B79" s="12" t="s">
+      <c r="B79" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C79" s="15" t="s">
+      <c r="C79" s="13" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="30.75" thickBot="1">
-      <c r="A80" s="14" t="s">
+    <row r="80" spans="1:3" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A80" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="B80" s="12" t="s">
+      <c r="B80" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C80" s="15" t="s">
+      <c r="C80" s="13" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="33.75" thickBot="1">
-      <c r="A81" s="14" t="s">
+    <row r="81" spans="1:3" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A81" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="B81" s="12" t="s">
+      <c r="B81" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C81" s="15" t="s">
+      <c r="C81" s="13" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A82" s="14" t="s">
+    <row r="82" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A82" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="B82" s="12" t="s">
+      <c r="B82" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C82" s="15" t="s">
+      <c r="C82" s="13" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="30.75" thickBot="1">
-      <c r="A83" s="14" t="s">
+    <row r="83" spans="1:3" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A83" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="B83" s="12" t="s">
+      <c r="B83" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C83" s="15" t="s">
+      <c r="C83" s="13" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
-      <c r="A84" s="43" t="s">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A84" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="B84" s="46" t="s">
+      <c r="B84" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="C84" s="32" t="s">
+      <c r="C84" s="30" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
-      <c r="A85" s="44"/>
-      <c r="B85" s="47"/>
-      <c r="C85" s="16"/>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" s="44"/>
-      <c r="B86" s="47"/>
-      <c r="C86" s="16" t="s">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A85" s="42"/>
+      <c r="B85" s="46"/>
+      <c r="C85" s="14"/>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A86" s="42"/>
+      <c r="B86" s="46"/>
+      <c r="C86" s="14" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
-      <c r="A87" s="44"/>
-      <c r="B87" s="47"/>
-      <c r="C87" s="16"/>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="44"/>
-      <c r="B88" s="47"/>
-      <c r="C88" s="16" t="s">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A87" s="42"/>
+      <c r="B87" s="46"/>
+      <c r="C87" s="14"/>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A88" s="42"/>
+      <c r="B88" s="46"/>
+      <c r="C88" s="14" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
-      <c r="A89" s="44"/>
-      <c r="B89" s="47"/>
-      <c r="C89" s="16"/>
-    </row>
-    <row r="90" spans="1:3" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A90" s="45"/>
-      <c r="B90" s="48"/>
-      <c r="C90" s="15" t="s">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A89" s="42"/>
+      <c r="B89" s="46"/>
+      <c r="C89" s="14"/>
+    </row>
+    <row r="90" spans="1:3" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A90" s="43"/>
+      <c r="B90" s="40"/>
+      <c r="C90" s="13" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="43.5" thickBot="1">
-      <c r="A91" s="14" t="s">
+    <row r="91" spans="1:3" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A91" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="B91" s="12" t="s">
+      <c r="B91" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="C91" s="15" t="s">
+      <c r="C91" s="13" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="36.75" customHeight="1" thickBot="1">
-      <c r="A92" s="14" t="s">
+    <row r="92" spans="1:3" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A92" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="B92" s="12" t="s">
+      <c r="B92" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C92" s="15" t="s">
+      <c r="C92" s="13" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A93" s="14" t="s">
+    <row r="93" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A93" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="B93" s="12" t="s">
+      <c r="B93" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C93" s="15" t="s">
+      <c r="C93" s="13" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="30.75" thickBot="1">
-      <c r="A94" s="14" t="s">
+    <row r="94" spans="1:3" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A94" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="B94" s="12" t="s">
+      <c r="B94" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C94" s="15" t="s">
+      <c r="C94" s="13" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="48.75" thickBot="1">
-      <c r="A95" s="14" t="s">
+    <row r="95" spans="1:3" ht="46.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A95" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="B95" s="12" t="s">
+      <c r="B95" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C95" s="15" t="s">
+      <c r="C95" s="13" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="37.5" customHeight="1" thickBot="1">
-      <c r="A96" s="14" t="s">
+    <row r="96" spans="1:3" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A96" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="B96" s="12" t="s">
+      <c r="B96" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C96" s="15" t="s">
+      <c r="C96" s="13" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="36.75" thickBot="1">
-      <c r="A97" s="14" t="s">
+    <row r="97" spans="1:3" ht="32.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A97" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="B97" s="12" t="s">
+      <c r="B97" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C97" s="15" t="s">
+      <c r="C97" s="13" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="36.75" thickBot="1">
-      <c r="A98" s="14" t="s">
+    <row r="98" spans="1:3" ht="32.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A98" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="B98" s="12" t="s">
+      <c r="B98" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C98" s="15" t="s">
+      <c r="C98" s="13" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="33.75" thickBot="1">
-      <c r="A99" s="14" t="s">
+    <row r="99" spans="1:3" ht="32.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A99" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="B99" s="12" t="s">
+      <c r="B99" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C99" s="15" t="s">
+      <c r="C99" s="13" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="33.75" thickBot="1">
-      <c r="A100" s="14">
+    <row r="100" spans="1:3" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A100" s="12">
         <v>1900</v>
       </c>
-      <c r="B100" s="12" t="s">
+      <c r="B100" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C100" s="13" t="s">
+      <c r="C100" s="11" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A101" s="14" t="s">
+    <row r="101" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A101" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="B101" s="12" t="s">
+      <c r="B101" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C101" s="15" t="s">
+      <c r="C101" s="13" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="30.75" thickBot="1">
-      <c r="A102" s="14" t="s">
+    <row r="102" spans="1:3" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A102" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="B102" s="12" t="s">
+      <c r="B102" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C102" s="15" t="s">
+      <c r="C102" s="13" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A103" s="14" t="s">
+    <row r="103" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A103" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="B103" s="12" t="s">
+      <c r="B103" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="C103" s="15" t="s">
+      <c r="C103" s="13" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A104" s="14" t="s">
+    <row r="104" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A104" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="B104" s="12" t="s">
+      <c r="B104" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C104" s="15" t="s">
+      <c r="C104" s="13" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A105" s="14" t="s">
+    <row r="105" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A105" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="B105" s="12" t="s">
+      <c r="B105" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C105" s="15" t="s">
+      <c r="C105" s="13" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A106" s="14" t="s">
+    <row r="106" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A106" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="B106" s="12" t="s">
+      <c r="B106" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C106" s="15" t="s">
+      <c r="C106" s="13" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A107" s="14" t="s">
+    <row r="107" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A107" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="B107" s="12" t="s">
+      <c r="B107" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C107" s="15" t="s">
+      <c r="C107" s="13" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="30.75" thickBot="1">
-      <c r="A108" s="14" t="s">
+    <row r="108" spans="1:3" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A108" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="B108" s="12" t="s">
+      <c r="B108" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C108" s="15" t="s">
+      <c r="C108" s="13" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="30.75" thickBot="1">
-      <c r="A109" s="14" t="s">
+    <row r="109" spans="1:3" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A109" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="B109" s="12" t="s">
+      <c r="B109" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="C109" s="15" t="s">
+      <c r="C109" s="13" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A110" s="14" t="s">
+    <row r="110" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A110" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="B110" s="12" t="s">
+      <c r="B110" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C110" s="15" t="s">
+      <c r="C110" s="13" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A111" s="14" t="s">
+    <row r="111" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A111" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="B111" s="12" t="s">
+      <c r="B111" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="C111" s="15" t="s">
+      <c r="C111" s="13" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="30.75" thickBot="1">
-      <c r="A112" s="14" t="s">
+    <row r="112" spans="1:3" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A112" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="B112" s="12" t="s">
+      <c r="B112" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="C112" s="15" t="s">
+      <c r="C112" s="13" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="30.75" thickBot="1">
-      <c r="A113" s="14" t="s">
+    <row r="113" spans="1:3" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A113" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="B113" s="12" t="s">
+      <c r="B113" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="C113" s="15" t="s">
+      <c r="C113" s="13" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A114" s="14" t="s">
+    <row r="114" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A114" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="B114" s="12" t="s">
+      <c r="B114" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C114" s="15" t="s">
+      <c r="C114" s="13" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="60.75" thickBot="1">
-      <c r="A115" s="14" t="s">
+    <row r="115" spans="1:3" ht="56.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A115" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="B115" s="12" t="s">
+      <c r="B115" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="C115" s="15" t="s">
+      <c r="C115" s="13" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
-      <c r="A116" s="43" t="s">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A116" s="41" t="s">
         <v>141</v>
       </c>
-      <c r="B116" s="46" t="s">
+      <c r="B116" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="C116" s="17" t="s">
+      <c r="C116" s="15" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
-      <c r="A117" s="44"/>
-      <c r="B117" s="47"/>
-      <c r="C117" s="16"/>
-    </row>
-    <row r="118" spans="1:3" ht="30">
-      <c r="A118" s="44"/>
-      <c r="B118" s="47"/>
-      <c r="C118" s="16" t="s">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A117" s="42"/>
+      <c r="B117" s="46"/>
+      <c r="C117" s="14"/>
+    </row>
+    <row r="118" spans="1:3" ht="28" x14ac:dyDescent="0.35">
+      <c r="A118" s="42"/>
+      <c r="B118" s="46"/>
+      <c r="C118" s="14" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
-      <c r="A119" s="44"/>
-      <c r="B119" s="47"/>
-      <c r="C119" s="16"/>
-    </row>
-    <row r="120" spans="1:3" ht="36.75" thickBot="1">
-      <c r="A120" s="45"/>
-      <c r="B120" s="48"/>
-      <c r="C120" s="15" t="s">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A119" s="42"/>
+      <c r="B119" s="46"/>
+      <c r="C119" s="14"/>
+    </row>
+    <row r="120" spans="1:3" ht="32.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A120" s="43"/>
+      <c r="B120" s="40"/>
+      <c r="C120" s="13" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="105">
-      <c r="A121" s="43" t="s">
+    <row r="121" spans="1:3" ht="84" x14ac:dyDescent="0.35">
+      <c r="A121" s="41" t="s">
         <v>144</v>
       </c>
-      <c r="B121" s="46" t="s">
+      <c r="B121" s="39" t="s">
         <v>145</v>
       </c>
-      <c r="C121" s="16" t="s">
+      <c r="C121" s="14" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
-      <c r="A122" s="44"/>
-      <c r="B122" s="47"/>
-      <c r="C122" s="16"/>
-    </row>
-    <row r="123" spans="1:3" ht="45">
-      <c r="A123" s="44"/>
-      <c r="B123" s="47"/>
-      <c r="C123" s="16" t="s">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A122" s="42"/>
+      <c r="B122" s="46"/>
+      <c r="C122" s="14"/>
+    </row>
+    <row r="123" spans="1:3" ht="42" x14ac:dyDescent="0.35">
+      <c r="A123" s="42"/>
+      <c r="B123" s="46"/>
+      <c r="C123" s="14" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
-      <c r="A124" s="44"/>
-      <c r="B124" s="47"/>
-      <c r="C124" s="16"/>
-    </row>
-    <row r="125" spans="1:3" ht="45.75" thickBot="1">
-      <c r="A125" s="45"/>
-      <c r="B125" s="48"/>
-      <c r="C125" s="15" t="s">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A124" s="42"/>
+      <c r="B124" s="46"/>
+      <c r="C124" s="14"/>
+    </row>
+    <row r="125" spans="1:3" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A125" s="43"/>
+      <c r="B125" s="40"/>
+      <c r="C125" s="13" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A126" s="14" t="s">
+    <row r="126" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A126" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="B126" s="12" t="s">
+      <c r="B126" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="C126" s="15" t="s">
+      <c r="C126" s="13" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="129" spans="3:3">
+    <row r="129" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C129" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="130" spans="3:3" ht="30">
-      <c r="C130" s="19" t="s">
+    <row r="130" spans="3:3" ht="28" x14ac:dyDescent="0.35">
+      <c r="C130" s="17" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="131" spans="3:3" ht="30">
-      <c r="C131" s="19" t="s">
+    <row r="131" spans="3:3" ht="28" x14ac:dyDescent="0.35">
+      <c r="C131" s="17" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="132" spans="3:3" ht="30">
-      <c r="C132" s="19" t="s">
+    <row r="132" spans="3:3" ht="28" x14ac:dyDescent="0.35">
+      <c r="C132" s="17" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="133" spans="3:3" ht="30">
-      <c r="C133" s="19" t="s">
+    <row r="133" spans="3:3" ht="28" x14ac:dyDescent="0.35">
+      <c r="C133" s="17" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="134" spans="3:3" ht="30">
-      <c r="C134" s="19" t="s">
+    <row r="134" spans="3:3" ht="28" x14ac:dyDescent="0.35">
+      <c r="C134" s="17" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="135" spans="3:3">
-      <c r="C135" s="19" t="s">
+    <row r="135" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C135" s="17" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="136" spans="3:3" ht="33">
-      <c r="C136" s="20" t="s">
+    <row r="136" spans="3:3" ht="30" x14ac:dyDescent="0.35">
+      <c r="C136" s="18" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="137" spans="3:3" ht="33">
-      <c r="C137" s="20" t="s">
+    <row r="137" spans="3:3" ht="30" x14ac:dyDescent="0.35">
+      <c r="C137" s="18" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="138" spans="3:3" ht="33">
-      <c r="C138" s="20" t="s">
+    <row r="138" spans="3:3" ht="30" x14ac:dyDescent="0.35">
+      <c r="C138" s="18" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="139" spans="3:3" ht="33">
-      <c r="C139" s="20" t="s">
+    <row r="139" spans="3:3" ht="30" x14ac:dyDescent="0.35">
+      <c r="C139" s="18" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="140" spans="3:3" ht="33">
-      <c r="C140" s="20" t="s">
+    <row r="140" spans="3:3" ht="30" x14ac:dyDescent="0.35">
+      <c r="C140" s="18" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="141" spans="3:3" ht="30">
-      <c r="C141" s="20" t="s">
+    <row r="141" spans="3:3" ht="28" x14ac:dyDescent="0.35">
+      <c r="C141" s="18" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="142" spans="3:3" ht="33">
-      <c r="C142" s="20" t="s">
+    <row r="142" spans="3:3" ht="30" x14ac:dyDescent="0.35">
+      <c r="C142" s="18" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="143" spans="3:3" ht="33">
-      <c r="C143" s="20" t="s">
+    <row r="143" spans="3:3" ht="30" x14ac:dyDescent="0.35">
+      <c r="C143" s="18" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="144" spans="3:3" ht="33">
-      <c r="C144" s="20" t="s">
+    <row r="144" spans="3:3" ht="30" x14ac:dyDescent="0.35">
+      <c r="C144" s="18" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="145" spans="3:3" ht="33">
-      <c r="C145" s="20" t="s">
+    <row r="145" spans="3:3" ht="30" x14ac:dyDescent="0.35">
+      <c r="C145" s="18" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="146" spans="3:3" ht="33">
-      <c r="C146" s="20" t="s">
+    <row r="146" spans="3:3" ht="30" x14ac:dyDescent="0.35">
+      <c r="C146" s="18" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="147" spans="3:3" ht="33">
-      <c r="C147" s="20" t="s">
+    <row r="147" spans="3:3" ht="30" x14ac:dyDescent="0.35">
+      <c r="C147" s="18" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="148" spans="3:3" ht="33">
-      <c r="C148" s="20" t="s">
+    <row r="148" spans="3:3" ht="30" x14ac:dyDescent="0.35">
+      <c r="C148" s="18" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="149" spans="3:3" ht="33">
-      <c r="C149" s="20" t="s">
+    <row r="149" spans="3:3" ht="30" x14ac:dyDescent="0.35">
+      <c r="C149" s="18" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="150" spans="3:3" ht="33">
-      <c r="C150" s="20" t="s">
+    <row r="150" spans="3:3" ht="30" x14ac:dyDescent="0.35">
+      <c r="C150" s="18" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="151" spans="3:3" ht="33">
-      <c r="C151" s="20" t="s">
+    <row r="151" spans="3:3" ht="30" x14ac:dyDescent="0.35">
+      <c r="C151" s="18" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="152" spans="3:3" ht="33">
-      <c r="C152" s="20" t="s">
+    <row r="152" spans="3:3" ht="30" x14ac:dyDescent="0.35">
+      <c r="C152" s="18" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="153" spans="3:3" ht="33">
-      <c r="C153" s="20" t="s">
+    <row r="153" spans="3:3" ht="30" x14ac:dyDescent="0.35">
+      <c r="C153" s="18" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="154" spans="3:3" ht="33">
-      <c r="C154" s="20" t="s">
+    <row r="154" spans="3:3" ht="30" x14ac:dyDescent="0.35">
+      <c r="C154" s="18" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="155" spans="3:3" ht="33">
-      <c r="C155" s="20" t="s">
+    <row r="155" spans="3:3" ht="30" x14ac:dyDescent="0.35">
+      <c r="C155" s="18" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="156" spans="3:3" ht="33">
-      <c r="C156" s="20" t="s">
+    <row r="156" spans="3:3" ht="30" x14ac:dyDescent="0.35">
+      <c r="C156" s="18" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="157" spans="3:3" ht="30">
-      <c r="C157" s="20" t="s">
+    <row r="157" spans="3:3" ht="28" x14ac:dyDescent="0.35">
+      <c r="C157" s="18" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="158" spans="3:3" ht="30">
-      <c r="C158" s="20" t="s">
+    <row r="158" spans="3:3" ht="28" x14ac:dyDescent="0.35">
+      <c r="C158" s="18" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="159" spans="3:3" ht="30">
-      <c r="C159" s="20" t="s">
+    <row r="159" spans="3:3" ht="28" x14ac:dyDescent="0.35">
+      <c r="C159" s="18" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="160" spans="3:3" ht="60">
-      <c r="C160" s="20" t="s">
+    <row r="160" spans="3:3" ht="56" x14ac:dyDescent="0.35">
+      <c r="C160" s="18" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="161" spans="3:3">
-      <c r="C161" s="20" t="s">
+    <row r="161" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C161" s="18" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="162" spans="3:3">
-      <c r="C162" s="21" t="s">
+    <row r="162" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C162" s="19" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="163" spans="3:3">
-      <c r="C163" s="20" t="s">
+    <row r="163" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C163" s="18" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="164" spans="3:3" ht="30">
-      <c r="C164" s="19" t="s">
+    <row r="164" spans="3:3" ht="28" x14ac:dyDescent="0.35">
+      <c r="C164" s="17" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="165" spans="3:3" ht="30">
-      <c r="C165" s="19" t="s">
+    <row r="165" spans="3:3" ht="28" x14ac:dyDescent="0.35">
+      <c r="C165" s="17" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="166" spans="3:3" ht="30">
-      <c r="C166" s="19" t="s">
+    <row r="166" spans="3:3" ht="28" x14ac:dyDescent="0.35">
+      <c r="C166" s="17" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="167" spans="3:3" ht="30">
-      <c r="C167" s="19" t="s">
+    <row r="167" spans="3:3" ht="28" x14ac:dyDescent="0.35">
+      <c r="C167" s="17" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="168" spans="3:3" ht="30">
-      <c r="C168" s="19" t="s">
+    <row r="168" spans="3:3" ht="28" x14ac:dyDescent="0.35">
+      <c r="C168" s="17" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="169" spans="3:3">
-      <c r="C169" s="22"/>
-    </row>
-    <row r="170" spans="3:3">
-      <c r="C170" s="22"/>
-    </row>
-    <row r="171" spans="3:3">
-      <c r="C171" s="23" t="s">
+    <row r="169" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C169" s="20"/>
+    </row>
+    <row r="170" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C170" s="20"/>
+    </row>
+    <row r="171" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C171" s="21" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="172" spans="3:3" ht="30">
-      <c r="C172" s="20" t="s">
+    <row r="172" spans="3:3" ht="28" x14ac:dyDescent="0.35">
+      <c r="C172" s="18" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="173" spans="3:3">
-      <c r="C173" s="20" t="s">
+    <row r="173" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C173" s="18" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="174" spans="3:3">
-      <c r="C174" s="20" t="s">
+    <row r="174" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C174" s="18" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="175" spans="3:3">
-      <c r="C175" s="20" t="s">
+    <row r="175" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C175" s="18" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="176" spans="3:3">
-      <c r="C176" s="20" t="s">
+    <row r="176" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C176" s="18" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="177" spans="3:3">
-      <c r="C177" s="20" t="s">
+    <row r="177" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C177" s="18" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="178" spans="3:3">
-      <c r="C178" s="20" t="s">
+    <row r="178" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C178" s="18" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="179" spans="3:3">
-      <c r="C179" s="20" t="s">
+    <row r="179" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C179" s="18" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="180" spans="3:3">
-      <c r="C180" s="20" t="s">
+    <row r="180" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C180" s="18" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="181" spans="3:3">
-      <c r="C181" s="20" t="s">
+    <row r="181" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C181" s="18" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="182" spans="3:3">
-      <c r="C182" s="20" t="s">
+    <row r="182" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C182" s="18" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="183" spans="3:3">
-      <c r="C183" s="20" t="s">
+    <row r="183" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C183" s="18" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="184" spans="3:3">
-      <c r="C184" s="20" t="s">
+    <row r="184" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C184" s="18" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="185" spans="3:3">
-      <c r="C185" s="20" t="s">
+    <row r="185" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C185" s="18" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="186" spans="3:3" ht="18">
-      <c r="C186" s="20" t="s">
+    <row r="186" spans="3:3" ht="16" x14ac:dyDescent="0.35">
+      <c r="C186" s="18" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="187" spans="3:3" ht="18">
-      <c r="C187" s="20" t="s">
+    <row r="187" spans="3:3" ht="16" x14ac:dyDescent="0.35">
+      <c r="C187" s="18" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="188" spans="3:3" ht="18">
-      <c r="C188" s="20" t="s">
+    <row r="188" spans="3:3" ht="16" x14ac:dyDescent="0.35">
+      <c r="C188" s="18" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="189" spans="3:3" ht="18">
-      <c r="C189" s="20" t="s">
+    <row r="189" spans="3:3" ht="16" x14ac:dyDescent="0.35">
+      <c r="C189" s="18" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="190" spans="3:3" ht="30">
-      <c r="C190" s="20" t="s">
+    <row r="190" spans="3:3" ht="28" x14ac:dyDescent="0.35">
+      <c r="C190" s="18" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="191" spans="3:3">
-      <c r="C191" s="21" t="s">
+    <row r="191" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C191" s="19" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="192" spans="3:3" ht="30">
-      <c r="C192" s="20" t="s">
+    <row r="192" spans="3:3" ht="28" x14ac:dyDescent="0.35">
+      <c r="C192" s="18" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="193" spans="3:3" ht="30">
-      <c r="C193" s="20" t="s">
+    <row r="193" spans="3:3" ht="28" x14ac:dyDescent="0.35">
+      <c r="C193" s="18" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="194" spans="3:3">
-      <c r="C194" s="18"/>
+    <row r="194" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C194" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="A3:A11"/>
+    <mergeCell ref="A121:A125"/>
+    <mergeCell ref="B121:B125"/>
+    <mergeCell ref="A84:A90"/>
+    <mergeCell ref="B84:B90"/>
+    <mergeCell ref="A116:A120"/>
+    <mergeCell ref="B116:B120"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="B45:B46"/>
     <mergeCell ref="B50:B51"/>
@@ -5672,17 +5714,6 @@
     <mergeCell ref="C48:C49"/>
     <mergeCell ref="A25:A30"/>
     <mergeCell ref="B25:B30"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="A3:A11"/>
-    <mergeCell ref="A121:A125"/>
-    <mergeCell ref="B121:B125"/>
-    <mergeCell ref="A84:A90"/>
-    <mergeCell ref="B84:B90"/>
-    <mergeCell ref="A116:A120"/>
-    <mergeCell ref="B116:B120"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5690,70 +5721,70 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A13:A70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="55.5703125" customWidth="1"/>
+    <col min="1" max="1" width="55.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="13" spans="1:1">
-      <c r="A13" s="35" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13" s="33" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="35" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14" s="33" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="35" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A30" s="33" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="35" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A31" s="33" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="30">
-      <c r="A49" s="37" t="s">
+    <row r="49" spans="1:1" ht="28" x14ac:dyDescent="0.35">
+      <c r="A49" s="18" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="35" t="s">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A50" s="33" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="30">
-      <c r="A64" s="36" t="s">
+    <row r="64" spans="1:1" ht="28.5" x14ac:dyDescent="0.35">
+      <c r="A64" s="16" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
-      <c r="A65" s="35" t="s">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A65" s="33" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
-      <c r="A68" s="38" t="s">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A68" s="34" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="69" spans="1:1" ht="78.75">
-      <c r="A69" s="39" t="s">
+    <row r="69" spans="1:1" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A69" s="35" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="30.75">
-      <c r="A70" s="39" t="s">
+    <row r="70" spans="1:1" ht="30" x14ac:dyDescent="0.35">
+      <c r="A70" s="35" t="s">
         <v>253</v>
       </c>
     </row>
